--- a/downloaded_files/EPES303_Lecture-35525.xlsx
+++ b/downloaded_files/EPES303_Lecture-35525.xlsx
@@ -132,15 +132,6 @@
     <x:t>Abdelrahman Ahmed Abdalla Ibrahim Mahmoud ElShaarawy</x:t>
   </x:si>
   <x:si>
-    <x:t>1230051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد مصطفى كامل البنا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abdelrahman ahmed mostafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230056</x:t>
   </x:si>
   <x:si>
@@ -184,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mostafa Ibrahim Elrayes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230222</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر وليد محمود عبد الرؤف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Walid Mahmoud Abdelraouf</x:t>
   </x:si>
   <x:si>
     <x:t>1230083</x:t>
@@ -1186,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4381296296</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45917.6292190162</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45917.6292190162</x:v>
+        <x:v>45907.4199939468</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1282,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4199939468</x:v>
+        <x:v>45914.4522670949</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.4522670949</x:v>
+        <x:v>45915.9573228009</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.9573228009</x:v>
+        <x:v>45907.4162157407</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>

--- a/downloaded_files/EPES303_Lecture-35525.xlsx
+++ b/downloaded_files/EPES303_Lecture-35525.xlsx
@@ -78,15 +78,6 @@
     <x:t>Habiba Hussein</x:t>
   </x:si>
   <x:si>
-    <x:t>1230179</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230192</x:t>
   </x:si>
   <x:si>
@@ -139,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Samir Mohamed Abdelhameed Amer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220254</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن محمد عثمان عبد الحميد مرسي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdelrahman Mohammed Othman morsi</x:t>
   </x:si>
   <x:si>
     <x:t>1210257</x:t>
@@ -994,7 +994,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.4399514236</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1026,7 +1026,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45915.9550059028</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1058,7 +1058,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.9550059028</x:v>
+        <x:v>45918.3313315625</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1090,7 +1090,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45918.3313315625</x:v>
+        <x:v>45907.4344469097</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1122,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4344469097</x:v>
+        <x:v>45907.4158746875</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1154,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4158746875</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1186,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45927.441672419</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>

--- a/downloaded_files/EPES303_Lecture-35525.xlsx
+++ b/downloaded_files/EPES303_Lecture-35525.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -301,15 +301,6 @@
   </x:si>
   <x:si>
     <x:t>mohanad ahmed mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230127</x:t>
-  </x:si>
-  <x:si>
-    <x:t>هنا محمد رشدى محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hana Mohamed Roshdy Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1230129</x:t>
@@ -443,7 +434,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +734,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1314,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45915.9573228009</x:v>
+        <x:v>45927.812806794</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1794,7 +1785,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4408876968</x:v>
+        <x:v>45907.4150437153</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1817,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4150437153</x:v>
+        <x:v>45907.4197487269</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1843,38 +1834,6 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
-    </x:row>
-    <x:row r="34" spans="1:20">
-      <x:c r="A34" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B34" s="2" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="C34" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="E34" s="3">
-        <x:v>45907.4197487269</x:v>
-      </x:c>
-      <x:c r="F34" s="2" t="s"/>
-      <x:c r="G34" s="2" t="s"/>
-      <x:c r="H34" s="2" t="s"/>
-      <x:c r="I34" s="2" t="s"/>
-      <x:c r="J34" s="2" t="s"/>
-      <x:c r="K34" s="2" t="s"/>
-      <x:c r="L34" s="2" t="s"/>
-      <x:c r="M34" s="2" t="s"/>
-      <x:c r="N34" s="2" t="s"/>
-      <x:c r="O34" s="2" t="s"/>
-      <x:c r="P34" s="2" t="s"/>
-      <x:c r="Q34" s="2" t="s"/>
-      <x:c r="R34" s="2" t="s"/>
-      <x:c r="S34" s="2" t="s"/>
-      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES303_Lecture-35525.xlsx
+++ b/downloaded_files/EPES303_Lecture-35525.xlsx
@@ -78,6 +78,15 @@
     <x:t>Habiba Hussein</x:t>
   </x:si>
   <x:si>
+    <x:t>1230179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حمزة محمد سيد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230192</x:t>
   </x:si>
   <x:si>
@@ -166,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Mahmoud Ahmed El-Nashar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230218</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر مصطفى ابراهيم عبده الريس</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mostafa Ibrahim Elrayes</x:t>
   </x:si>
   <x:si>
     <x:t>1230222</x:t>
@@ -985,7 +985,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4151853819</x:v>
+        <x:v>45929.351341169</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1017,7 +1017,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9550059028</x:v>
+        <x:v>45907.4151853819</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1049,7 +1049,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45918.3313315625</x:v>
+        <x:v>45915.9550059028</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1081,7 +1081,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4344469097</x:v>
+        <x:v>45918.3313315625</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1113,7 +1113,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4158746875</x:v>
+        <x:v>45907.4344469097</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1145,7 +1145,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.418944213</x:v>
+        <x:v>45907.4158746875</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1177,7 +1177,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.441672419</x:v>
+        <x:v>45907.418944213</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1209,7 +1209,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45917.6292190162</x:v>
+        <x:v>45927.441672419</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1241,7 +1241,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4199939468</x:v>
+        <x:v>45917.6292190162</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1273,7 +1273,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.4522670949</x:v>
+        <x:v>45907.4199939468</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1305,7 +1305,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.812806794</x:v>
+        <x:v>45914.4522670949</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>

--- a/downloaded_files/EPES303_Lecture-35525.xlsx
+++ b/downloaded_files/EPES303_Lecture-35525.xlsx
@@ -81,7 +81,7 @@
     <x:t>1230179</x:t>
   </x:si>
   <x:si>
-    <x:t>حمزة محمد سيد حسن</x:t>
+    <x:t>حمزة محمد سيد على على حسن</x:t>
   </x:si>
   <x:si>
     <x:t>Hamza Mohamed Sayed Aly Aly Hassan</x:t>

--- a/downloaded_files/EPES303_Lecture-35525.xlsx
+++ b/downloaded_files/EPES303_Lecture-35525.xlsx
@@ -72,10 +72,10 @@
     <x:t>1230028</x:t>
   </x:si>
   <x:si>
-    <x:t>حبيبه حسين محمد احمد احمد بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Hussein</x:t>
+    <x:t xml:space="preserve">حبيبه حسين محمد احمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>HABIBA HUSSEIN MOHAMED AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1230179</x:t>
